--- a/jirapackkkk.xlsx
+++ b/jirapackkkk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus22-PC\Documents\GitHub\chikku123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BD2C7-39F0-4158-A2E5-DBB981F65A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBC439-2FDB-4EEB-92AA-31F5966BBE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,13 +430,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J63" totalsRowShown="0">
-  <autoFilter ref="A1:J63" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -741,7 +735,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +810,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -830,7 +824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -844,7 +838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>21</v>
       </c>
@@ -858,7 +852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>26</v>
       </c>
@@ -895,7 +889,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>18</v>
       </c>
@@ -932,7 +926,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>17</v>
       </c>
@@ -946,7 +940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>21</v>
       </c>
@@ -960,7 +954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>21</v>
       </c>
@@ -974,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>26</v>
       </c>
@@ -1011,7 +1005,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>18</v>
       </c>
@@ -1022,7 +1016,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1053,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>55</v>
       </c>
@@ -1073,7 +1067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>58</v>
       </c>
@@ -1087,7 +1081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>61</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>21</v>
       </c>
@@ -1115,7 +1109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>64</v>
       </c>
@@ -1129,7 +1123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>68</v>
       </c>
@@ -1140,7 +1134,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>71</v>
       </c>
@@ -1151,7 +1145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>74</v>
       </c>
@@ -1162,7 +1156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>77</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>80</v>
       </c>
@@ -1184,7 +1178,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>83</v>
       </c>
@@ -1221,7 +1215,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>55</v>
       </c>
@@ -1235,7 +1229,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>58</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>61</v>
       </c>
@@ -1263,7 +1257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>21</v>
       </c>
@@ -1277,7 +1271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>64</v>
       </c>
@@ -1291,7 +1285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>68</v>
       </c>
@@ -1302,7 +1296,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>71</v>
       </c>
@@ -1313,7 +1307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>74</v>
       </c>
@@ -1350,7 +1344,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1381,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>55</v>
       </c>
@@ -1401,7 +1395,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>58</v>
       </c>
@@ -1415,7 +1409,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>61</v>
       </c>
@@ -1429,7 +1423,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>21</v>
       </c>
@@ -1443,7 +1437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>64</v>
       </c>
@@ -1457,7 +1451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>68</v>
       </c>
@@ -1468,7 +1462,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
         <v>71</v>
       </c>
@@ -1479,7 +1473,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
         <v>74</v>
       </c>
@@ -1490,7 +1484,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>77</v>
       </c>
@@ -1501,7 +1495,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>80</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>83</v>
       </c>
@@ -1549,7 +1543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>55</v>
       </c>
@@ -1563,7 +1557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>58</v>
       </c>
@@ -1577,7 +1571,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>61</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>21</v>
       </c>
@@ -1605,7 +1599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>64</v>
       </c>
@@ -1619,7 +1613,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>68</v>
       </c>
@@ -1630,7 +1624,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>71</v>
       </c>
@@ -1641,7 +1635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>74</v>
       </c>
@@ -1675,7 +1669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>18</v>
       </c>
@@ -1686,7 +1680,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>22</v>
       </c>
